--- a/Original Excel Files/QI-QZ.xlsx
+++ b/Original Excel Files/QI-QZ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8581D01-55ED-4767-B2D3-183800BD329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="29190" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -416,6 +417,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +443,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +527,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,6 +579,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A10:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +796,10 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -758,10 +813,10 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -773,776 +828,796 @@
       <c r="C12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="9">
+      <c r="H12" s="9">
         <v>1961</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18">
+        <v>2005</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2"/>
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1979</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1966</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5">
+        <v>1979</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="11">
+        <v>1979</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1979</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1966</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11">
+        <v>1985</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
+      <c r="H22" s="5">
+        <v>1985</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1">
-        <v>1985</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5">
-        <v>1985</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1961</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="11">
+        <v>1984</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1">
-        <v>1995</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1">
-        <v>1984</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1985</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="11">
+        <v>1986</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="11">
+        <v>1986</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1">
+        <v>1997</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1982</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1982</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1982</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="16">
         <v>1984</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="I39" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H40" t="s">
         <v>38</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I40" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="5"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1961</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1985</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5">
-        <v>1986</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1">
-        <v>1986</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1">
-        <v>1986</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5">
-        <v>1986</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1994</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="5">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="1">
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1982</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1984</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1994</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5">
-        <v>1994</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1">
-        <v>1994</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1">
-        <v>1996</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="5">
+        <v>2002</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5">
-        <v>1996</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="11">
         <v>2002</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I47" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="1">
-        <v>2002</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="18"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="18"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="18"/>
+      <c r="I54" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J54">
+    <sortCondition ref="A1:A54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1554,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
